--- a/medicine/Autisme/Henriett_Seth_F/Henriett_Seth_F..xlsx
+++ b/medicine/Autisme/Henriett_Seth_F/Henriett_Seth_F..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henriett Seth F. (née Henrietta Fajcsák le 27 octobre 1980 à Eger) est une écrivaine, peintre et scénariste hongroise.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son premier roman Autizmussal önmagamba zárva (Enfermée en moi par l'autisme) publié en 2005 en Hongrie, devint un best-seller mondial de la littérature sur l'autisme. Père Bela Fajcsak ( organisme chargé de l'application de la loi , Eger, Ungria). Arrière-grand-père Heinrich Stigler (Empire d'Autriche) . Arrière grand-mère  Maria Händel . Parrain dr. Janos Sekely (évêque Hongrie, évêque, Tunisie, 2007-). Nom de confirmation: Florida.Servant d'autel,Lecteur (liturgie)  ( Église catholique, Eger, Hongrie, 2023-)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son premier roman Autizmussal önmagamba zárva (Enfermée en moi par l'autisme) publié en 2005 en Hongrie, devint un best-seller mondial de la littérature sur l'autisme. Père Bela Fajcsak ( organisme chargé de l'application de la loi , Eger, Ungria). Arrière-grand-père Heinrich Stigler (Empire d'Autriche) . Arrière grand-mère  Maria Händel . Parrain dr. Janos Sekely (évêque Hongrie, évêque, Tunisie, 2007-). Nom de confirmation: Florida.Servant d'autel,Lecteur (liturgie)  ( Église catholique, Eger, Hongrie, 2023-).
 Elle est la cousine d'Albert Poldesz.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nemsenkilény, monológ nemmindegyembereknek (Monodrame), 2010</t>
         </is>
